--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ACVI2018\person-detection\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cananthapatn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Average Precision</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>DataSet</t>
-  </si>
-  <si>
     <t>Training Dataset</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Model Iteration</t>
   </si>
   <si>
-    <t>RECALL</t>
-  </si>
-  <si>
     <t>F1 Score</t>
   </si>
   <si>
@@ -63,6 +57,9 @@
   </si>
   <si>
     <t>False Negative</t>
+  </si>
+  <si>
+    <t>Average RECALL</t>
   </si>
 </sst>
 </file>
@@ -413,30 +410,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -456,28 +452,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -490,9 +483,8 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -505,9 +497,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -520,9 +511,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -535,9 +525,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -550,9 +539,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -565,9 +553,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -580,7 +567,6 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Average Precision</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>DataSet</t>
-  </si>
-  <si>
     <t>Training Dataset</t>
   </si>
   <si>
@@ -63,13 +60,22 @@
   </si>
   <si>
     <t>False Negative</t>
+  </si>
+  <si>
+    <t>Atul Gupta</t>
+  </si>
+  <si>
+    <t>RFCN</t>
+  </si>
+  <si>
+    <t>Mini Drone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +85,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,18 +137,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F2" sqref="F2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,19 +445,18 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -456,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -465,34 +485,57 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15347</v>
+      </c>
+      <c r="H2" s="3">
+        <v>26931</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>G2/(G2+H2)</f>
+        <v>0.36300203415487958</v>
+      </c>
+      <c r="K2" s="4">
+        <f>H2/(H2+I2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <f>2*(J2*K2)/(J2+K2)</f>
+        <v>0.53265075921908889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -505,9 +548,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -520,9 +562,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -535,9 +576,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -550,9 +590,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -565,9 +604,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -580,7 +618,6 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ACVI2018\person-detection\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chandra\Personal\lessons\Data Science\IITH\Class\Advanced Machine Learning\Project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Average Precision</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Mini Drone</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>Faster RCNN</t>
+  </si>
+  <si>
+    <t>VOC 2C</t>
   </si>
 </sst>
 </file>
@@ -437,26 +446,26 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -494,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -535,35 +544,89 @@
         <v>0.53265075921908889</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4368</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3264</v>
+      </c>
+      <c r="I3" s="1">
+        <v>24002</v>
+      </c>
+      <c r="J3" s="4">
+        <f>G3/(G3+H3)</f>
+        <v>0.57232704402515722</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3/(H3+I3)</f>
+        <v>0.11970952835032642</v>
+      </c>
+      <c r="L3" s="4">
+        <f>2*(J3*K3)/(J3+K3)</f>
+        <v>0.19800398775807598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10769</v>
+      </c>
+      <c r="I4" s="1">
+        <v>31589</v>
+      </c>
+      <c r="J4" s="4">
+        <f>G4/(G4+H4)</f>
+        <v>0.52951199266022986</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4/(H4+I4)</f>
+        <v>0.25423768827612259</v>
+      </c>
+      <c r="L4" s="4">
+        <f>2*(J4*K4)/(J4+K4)</f>
+        <v>0.34353291159898419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -577,7 +640,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -591,7 +654,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -605,7 +668,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ACVI2018\person-detection\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cananthapatn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>Sr. No</t>
   </si>
@@ -116,7 +116,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +173,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,30 +462,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625"/>
-    <col min="2" max="2" width="10.5703125"/>
+    <col min="1" max="1" width="6.33203125"/>
+    <col min="2" max="2" width="10.5546875"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125"/>
-    <col min="5" max="5" width="14.7109375"/>
-    <col min="6" max="6" width="15.140625"/>
-    <col min="8" max="8" width="12.5703125"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="14.140625"/>
-    <col min="11" max="11" width="17.85546875"/>
+    <col min="4" max="4" width="15.5546875"/>
+    <col min="5" max="5" width="14.6640625"/>
+    <col min="6" max="6" width="15.109375"/>
+    <col min="8" max="8" width="12.5546875"/>
+    <col min="9" max="9" width="13.44140625"/>
+    <col min="10" max="10" width="14.109375"/>
+    <col min="11" max="11" width="17.88671875"/>
     <col min="12" max="12" width="15"/>
-    <col min="13" max="13" width="10.42578125"/>
-    <col min="14" max="1026" width="8.5703125"/>
+    <col min="13" max="13" width="10.44140625"/>
+    <col min="14" max="1026" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -545,11 +558,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>H2/(H2+I2)</f>
+        <f t="shared" ref="K2:L4" si="0">H2/(H2+I2)</f>
         <v>0.36300203415487958</v>
       </c>
       <c r="L2" s="4">
-        <f>I2/(I2+J2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M2" s="4">
@@ -557,7 +570,7 @@
         <v>0.53265075921908889</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -589,11 +602,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>H3/(H3+I3)</f>
+        <f t="shared" si="0"/>
         <v>0.20468248030629757</v>
       </c>
       <c r="L3" s="4">
-        <f>I3/(I3+J3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M3" s="4">
@@ -601,7 +614,7 @@
         <v>0.33981149996346893</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -633,11 +646,11 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>H4/(H4+I4)</f>
+        <f t="shared" si="0"/>
         <v>0.13907611500743844</v>
       </c>
       <c r="L4" s="4">
-        <f>I4/(I4+J4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4" s="4">
@@ -645,7 +658,7 @@
         <v>0.24419108288743327</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -674,7 +687,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -703,7 +716,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -745,7 +758,7 @@
         <v>0.19800398775807598</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -787,7 +800,7 @@
         <v>0.34353291159898419</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -808,7 +821,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -850,7 +863,7 @@
         <v>0.6923933845582565</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -892,7 +905,7 @@
         <v>0.64935841828883323</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -925,7 +938,7 @@
         <v>0.72705458908218401</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -958,7 +971,7 @@
         <v>0.10143531893428701</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>1.7662888193917699E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1022,6 +1035,48 @@
       </c>
       <c r="M15" s="4">
         <v>0.47115172058065002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>11648</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10743</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1734</v>
+      </c>
+      <c r="K16" s="7">
+        <f>H16/(H16+I16)</f>
+        <v>0.5202090125496851</v>
+      </c>
+      <c r="L16" s="7">
+        <f>I16/(I16+J16)</f>
+        <v>0.8610242846838182</v>
+      </c>
+      <c r="M16" s="7">
+        <f>2*(K16*L16)/(K16+L16)</f>
+        <v>0.64856906333463016</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Sr. No</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>VOC 21 Class</t>
+  </si>
+  <si>
+    <t>MD60k + Ok5K</t>
+  </si>
+  <si>
+    <t>60k + 5K</t>
+  </si>
+  <si>
+    <t>MD60k + Ok10K</t>
+  </si>
+  <si>
+    <t>60k + 10K</t>
+  </si>
+  <si>
+    <t>MD60k + Ok15K</t>
+  </si>
+  <si>
+    <t>60k + 15K</t>
+  </si>
+  <si>
+    <t>Any other change</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,8 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,16 +500,17 @@
     <col min="4" max="4" width="15.5546875"/>
     <col min="5" max="5" width="14.6640625"/>
     <col min="6" max="6" width="15.109375"/>
-    <col min="8" max="8" width="12.5546875"/>
-    <col min="9" max="9" width="13.44140625"/>
-    <col min="10" max="10" width="14.109375"/>
-    <col min="11" max="11" width="17.88671875"/>
-    <col min="12" max="12" width="15"/>
-    <col min="13" max="13" width="10.44140625"/>
-    <col min="14" max="1026" width="8.5546875"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875"/>
+    <col min="10" max="10" width="13.44140625"/>
+    <col min="11" max="11" width="14.109375"/>
+    <col min="12" max="12" width="17.88671875"/>
+    <col min="13" max="13" width="15"/>
+    <col min="14" max="14" width="10.44140625"/>
+    <col min="15" max="1027" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,29 +530,32 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -545,33 +573,34 @@
       <c r="F2" s="3">
         <v>100000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4">
         <v>0.47389999999999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>15347</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>26931</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:L4" si="0">H2/(H2+I2)</f>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:M4" si="0">I2/(I2+J2)</f>
         <v>0.36300203415487958</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M2" s="4">
-        <f>2*(K2*L2)/(K2+L2)</f>
+      <c r="N2" s="4">
+        <f>2*(L2*M2)/(L2+M2)</f>
         <v>0.53265075921908889</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -589,33 +618,34 @@
       <c r="F3" s="3">
         <v>100000</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4">
         <v>0.60270000000000001</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>4651</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>18072</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>0.20468248030629757</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="4">
-        <f>2*(K3*L3)/(K3+L3)</f>
+      <c r="N3" s="4">
+        <f>2*(L3*M3)/(L3+M3)</f>
         <v>0.33981149996346893</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -633,33 +663,34 @@
       <c r="F4" s="3">
         <v>100000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>18323</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>113425</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>0.13907611500743844</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M4" s="4">
-        <f>2*(K4*L4)/(K4+L4)</f>
+      <c r="N4" s="4">
+        <f>2*(L4*M4)/(L4+M4)</f>
         <v>0.24419108288743327</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -677,18 +708,19 @@
       <c r="F5" s="3">
         <v>80000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
         <v>0.49359999999999998</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -706,18 +738,19 @@
       <c r="F6" s="3">
         <v>100000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
         <v>0.51290000000000002</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -735,31 +768,32 @@
       <c r="F7" s="3">
         <v>100000</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3">
         <v>4368</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>3264</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>24002</v>
       </c>
-      <c r="K7" s="4">
-        <f>H7/(H7+I7)</f>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:M9" si="1">I7/(I7+J7)</f>
         <v>0.57232704402515722</v>
       </c>
-      <c r="L7" s="4">
-        <f>I7/(I7+J7)</f>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
         <v>0.11970952835032642</v>
       </c>
-      <c r="M7" s="4">
-        <f>2*(K7*L7)/(K7+L7)</f>
+      <c r="N7" s="4">
+        <f t="shared" ref="N7:N18" si="2">2*(L7*M7)/(L7+M7)</f>
         <v>0.19800398775807598</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -777,51 +811,74 @@
       <c r="F8" s="3">
         <v>100000</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3">
         <v>12120</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10769</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31589</v>
       </c>
-      <c r="K8" s="4">
-        <f>H8/(H8+I8)</f>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
         <v>0.52951199266022986</v>
       </c>
-      <c r="L8" s="4">
-        <f>I8/(I8+J8)</f>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
         <v>0.25423768827612259</v>
       </c>
-      <c r="M8" s="4">
-        <f>2*(K8*L8)/(K8+L8)</f>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
         <v>0.34353291159898419</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>33477</v>
+      </c>
+      <c r="J9" s="7">
+        <v>35720</v>
+      </c>
+      <c r="K9" s="7">
+        <v>463</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.48379264997037441</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98720393554984387</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64935841828883323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -841,71 +898,65 @@
         <v>100000</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>12120</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="3">
-        <v>10769</v>
+        <v>11648</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f>H10/(H10+I10)</f>
-        <v>0.52951199266022986</v>
+        <v>10743</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1734</v>
       </c>
       <c r="L10" s="4">
-        <f>I10/(I10+J10)</f>
-        <v>1</v>
+        <f t="shared" ref="L10" si="3">I10/(I10+J10)</f>
+        <v>0.5202090125496851</v>
       </c>
       <c r="M10" s="4">
-        <f>2*(K10*L10)/(K10+L10)</f>
-        <v>0.6923933845582565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M10" si="4">J10/(J10+K10)</f>
+        <v>0.8610242846838182</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64856906333463016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <v>100000</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>33477</v>
-      </c>
-      <c r="I11" s="3">
-        <v>35720</v>
-      </c>
-      <c r="J11" s="3">
-        <v>463</v>
-      </c>
-      <c r="K11" s="4">
-        <f>H11/(H11+I11)</f>
-        <v>0.48379264997037441</v>
-      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="4">
-        <f>I11/(I11+J11)</f>
-        <v>0.98720393554984387</v>
+        <v>0.90286054827175199</v>
       </c>
       <c r="M11" s="4">
-        <f>2*(K11*L11)/(K11+L11)</f>
-        <v>0.64935841828883323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.60855593492669202</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.72705458908218346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -919,26 +970,28 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>100000</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4">
-        <v>0.90286054827175199</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="4">
-        <v>0.60855593492669202</v>
+        <v>0.61512791991101201</v>
       </c>
       <c r="M12" s="4">
-        <v>0.72705458908218401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.5275126193213099E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10143531893428723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -952,26 +1005,28 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3">
         <v>100000</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4">
-        <v>0.61512791991101201</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="4">
-        <v>5.5275126193213099E-2</v>
+        <v>0.36324786324786301</v>
       </c>
       <c r="M13" s="4">
-        <v>0.10143531893428701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.8529678272733904E-4</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7662888193917732E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -982,34 +1037,36 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+        <v>10000</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4">
-        <v>0.36324786324786301</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="4">
-        <v>8.8529678272733904E-4</v>
+        <v>0.81307222787385602</v>
       </c>
       <c r="M14" s="4">
-        <v>1.7662888193917699E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.33167341010478302</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.47115172058065036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -1021,63 +1078,278 @@
         <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
+        <v>60000</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4">
-        <v>0.81307222787385602</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="4">
-        <v>0.33167341010478302</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="M15" s="4">
-        <v>0.47115172058065002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.46529207600035016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3295499021526417E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <v>11648</v>
-      </c>
-      <c r="I16" s="6">
-        <v>10743</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1734</v>
-      </c>
-      <c r="K16" s="7">
-        <f>H16/(H16+I16)</f>
-        <v>0.5202090125496851</v>
-      </c>
-      <c r="L16" s="7">
-        <f>I16/(I16+J16)</f>
-        <v>0.8610242846838182</v>
-      </c>
-      <c r="M16" s="7">
-        <f>2*(K16*L16)/(K16+L16)</f>
-        <v>0.64856906333463016</v>
-      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1.3760000000000001E-3</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.747679078386446E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9897000128749837E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2.588E-3</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19" si="5">2*(L19*M19)/(L19+M19)</f>
+        <v>5.1606150538424786E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3.0850000000000001E-3</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" ref="N20" si="6">2*(L20*M20)/(L20+M20)</f>
+        <v>6.1486126170665796E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:M15">

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
   <si>
     <t>Sr. No</t>
   </si>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
         <v>0.11970952835032642</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N18" si="2">2*(L7*M7)/(L7+M7)</f>
+        <f t="shared" ref="N7:N19" si="2">2*(L7*M7)/(L7+M7)</f>
         <v>0.19800398775807598</v>
       </c>
     </row>
@@ -909,11 +909,11 @@
         <v>1734</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10" si="3">I10/(I10+J10)</f>
+        <f t="shared" ref="L10:L11" si="3">I10/(I10+J10)</f>
         <v>0.5202090125496851</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="4">J10/(J10+K10)</f>
+        <f t="shared" ref="M10:M11" si="4">J10/(J10+K10)</f>
         <v>0.8610242846838182</v>
       </c>
       <c r="N10" s="4">
@@ -925,35 +925,43 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7">
         <v>100000</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4">
-        <v>0.90286054827175199</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.60855593492669202</v>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>24656</v>
+      </c>
+      <c r="J11" s="7">
+        <v>38849</v>
+      </c>
+      <c r="K11" s="7">
+        <v>25549</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.38825289347295489</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.60326407652411562</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.72705458908218346</v>
+        <f t="shared" ref="N11" si="5">2*(L11*M11)/(L11+M11)</f>
+        <v>0.47244581853091222</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -970,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <v>100000</v>
@@ -981,14 +989,14 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="4">
-        <v>0.61512791991101201</v>
+        <v>0.90286054827175199</v>
       </c>
       <c r="M12" s="4">
-        <v>5.5275126193213099E-2</v>
+        <v>0.60855593492669202</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="2"/>
-        <v>0.10143531893428723</v>
+        <v>0.72705458908218346</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1005,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3">
         <v>100000</v>
@@ -1016,14 +1024,14 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="4">
-        <v>0.36324786324786301</v>
+        <v>0.61512791991101201</v>
       </c>
       <c r="M13" s="4">
-        <v>8.8529678272733904E-4</v>
+        <v>5.5275126193213099E-2</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="2"/>
-        <v>1.7662888193917732E-3</v>
+        <v>0.10143531893428723</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1037,13 +1045,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
@@ -1051,14 +1059,14 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4">
-        <v>0.81307222787385602</v>
+        <v>0.36324786324786301</v>
       </c>
       <c r="M14" s="4">
-        <v>0.33167341010478302</v>
+        <v>8.8529678272733904E-4</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="2"/>
-        <v>0.47115172058065036</v>
+        <v>1.7662888193917732E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1066,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -1078,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
@@ -1086,14 +1094,14 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4">
-        <v>0.81679999999999997</v>
+        <v>0.81307222787385602</v>
       </c>
       <c r="M15" s="4">
-        <v>0.32529999999999998</v>
+        <v>0.33167341010478302</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="2"/>
-        <v>0.46529207600035016</v>
+        <v>0.47115172058065036</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1110,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3">
         <v>60000</v>
@@ -1121,14 +1129,14 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4">
-        <v>0.39679999999999999</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="M16" s="4">
-        <v>1.2E-2</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="2"/>
-        <v>2.3295499021526417E-2</v>
+        <v>0.46529207600035016</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1136,19 +1144,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
@@ -1156,14 +1164,14 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="4">
-        <v>0.875</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="M17" s="4">
-        <v>1.3760000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="2"/>
-        <v>2.747679078386446E-3</v>
+        <v>2.3295499021526417E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1171,19 +1179,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
+      <c r="F18" s="3">
+        <v>10000</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
@@ -1191,14 +1199,14 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4">
-        <v>0.77470000000000006</v>
+        <v>0.875</v>
       </c>
       <c r="M18" s="4">
-        <v>2E-3</v>
+        <v>1.3760000000000001E-3</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="2"/>
-        <v>3.9897000128749837E-3</v>
+        <v>2.747679078386446E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1212,13 +1220,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -1226,14 +1234,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4">
-        <v>0.86809999999999998</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="M19" s="4">
-        <v>2.588E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" ref="N19" si="5">2*(L19*M19)/(L19+M19)</f>
-        <v>5.1606150538424786E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.9897000128749837E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1247,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
@@ -1261,31 +1269,50 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4">
-        <v>0.88690000000000002</v>
+        <v>0.86809999999999998</v>
       </c>
       <c r="M20" s="4">
-        <v>3.0850000000000001E-3</v>
+        <v>2.588E-3</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" ref="N20" si="6">2*(L20*M20)/(L20+M20)</f>
-        <v>6.1486126170665796E-3</v>
+        <v>5.1606150538424786E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="L21" s="4">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3.0850000000000001E-3</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" ref="N21" si="7">2*(L21*M21)/(L21+M21)</f>
+        <v>6.1486126170665796E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1351,9 +1378,25 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:M15">
-    <sortCondition ref="B2:B15"/>
+  <sortState ref="A2:M16">
+    <sortCondition ref="B2:B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cananthapatn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ACVI2018\person-detection\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
   <si>
     <t>Sr. No</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Any other change</t>
+  </si>
+  <si>
+    <t>MD60k + Ok20K</t>
+  </si>
+  <si>
+    <t>60k + 20K</t>
+  </si>
+  <si>
+    <t>Freeze VGG</t>
   </si>
 </sst>
 </file>
@@ -486,31 +495,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125"/>
-    <col min="2" max="2" width="10.5546875"/>
+    <col min="1" max="1" width="6.28515625"/>
+    <col min="2" max="2" width="10.5703125"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875"/>
-    <col min="5" max="5" width="14.6640625"/>
-    <col min="6" max="6" width="15.109375"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="11" width="14.109375"/>
-    <col min="12" max="12" width="17.88671875"/>
+    <col min="4" max="4" width="15.5703125"/>
+    <col min="5" max="5" width="14.7109375"/>
+    <col min="6" max="6" width="15.140625"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="11" width="14.140625"/>
+    <col min="12" max="12" width="17.85546875"/>
     <col min="13" max="13" width="15"/>
-    <col min="14" max="14" width="10.44140625"/>
-    <col min="15" max="1027" width="8.5546875"/>
+    <col min="14" max="14" width="10.42578125"/>
+    <col min="15" max="1027" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -599,7 +608,7 @@
         <v>0.53265075921908889</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -644,7 +653,7 @@
         <v>0.33981149996346893</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -689,7 +698,7 @@
         <v>0.24419108288743327</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -719,7 +728,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -749,7 +758,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -792,7 +801,7 @@
         <v>0.19800398775807598</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -835,7 +844,7 @@
         <v>0.34353291159898419</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -878,7 +887,7 @@
         <v>0.64935841828883323</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -921,7 +930,7 @@
         <v>0.64856906333463016</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -964,7 +973,7 @@
         <v>0.47244581853091222</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>0.72705458908218346</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>0.10143531893428723</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>1.7662888193917732E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>0.47115172058065036</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>0.46529207600035016</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>2.3295499021526417E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>2.747679078386446E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>3.9897000128749837E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>5.1606150538424786E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1310,89 +1319,416 @@
         <v>3.0850000000000001E-3</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21" si="7">2*(L21*M21)/(L21+M21)</f>
+        <f t="shared" ref="N21:N26" si="7">2*(L21*M21)/(L21+M21)</f>
         <v>6.1486126170665796E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="L22" s="4">
+        <v>0.88395000000000001</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2.6809999999999998E-3</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="7"/>
+        <v>5.3457863530600664E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="L23" s="4">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.1409999999999998E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="7"/>
+        <v>4.1003198509740192E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="L24" s="4">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.38E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="7"/>
+        <v>2.6890197540067086E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="L25" s="4">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.1358E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2225264094887762E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="L26" s="4">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1.093E-2</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="7"/>
+        <v>2.1408106216783615E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:M16">

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
-  <si>
-    <t>Sr. No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
   <si>
     <t>Created By</t>
   </si>
@@ -123,6 +120,21 @@
   </si>
   <si>
     <t>Freeze VGG</t>
+  </si>
+  <si>
+    <t>MD60k + Ok25K</t>
+  </si>
+  <si>
+    <t>60k + 25K</t>
+  </si>
+  <si>
+    <t>MD60k + Ok30K</t>
+  </si>
+  <si>
+    <t>60k + 30K</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +233,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,46 +538,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -568,16 +585,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>100000</v>
@@ -613,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>100000</v>
@@ -658,16 +675,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="3">
         <v>100000</v>
@@ -703,16 +720,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
         <v>80000</v>
@@ -733,16 +750,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <v>100000</v>
@@ -763,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>100000</v>
@@ -806,16 +823,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>100000</v>
@@ -849,16 +866,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <v>100000</v>
@@ -892,16 +909,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
         <v>100000</v>
@@ -935,16 +952,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7">
         <v>100000</v>
@@ -978,16 +995,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>100000</v>
@@ -1013,16 +1030,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3">
         <v>100000</v>
@@ -1048,16 +1065,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F14" s="3">
         <v>100000</v>
@@ -1083,16 +1100,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3">
         <v>10000</v>
@@ -1118,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3">
         <v>60000</v>
@@ -1153,16 +1170,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F17" s="3">
         <v>60000</v>
@@ -1188,16 +1205,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3">
         <v>10000</v>
@@ -1223,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -1258,19 +1275,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
@@ -1293,19 +1310,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1319,7 +1336,7 @@
         <v>3.0850000000000001E-3</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:N26" si="7">2*(L21*M21)/(L21+M21)</f>
+        <f t="shared" ref="N21:N27" si="7">2*(L21*M21)/(L21+M21)</f>
         <v>6.1486126170665796E-3</v>
       </c>
     </row>
@@ -1328,19 +1345,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
@@ -1363,22 +1380,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
@@ -1400,22 +1417,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
@@ -1437,22 +1454,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
@@ -1474,22 +1491,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
@@ -1507,29 +1524,64 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="L27" s="4">
+        <v>0.5161</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1.085E-2</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="7"/>
+        <v>2.1253192902552422E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ACVI2018\person-detection\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cananthapatn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="3396" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
   <si>
     <t>Created By</t>
   </si>
@@ -158,7 +158,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +240,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,29 +523,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625"/>
-    <col min="2" max="2" width="10.5703125"/>
+    <col min="1" max="1" width="6.33203125"/>
+    <col min="2" max="2" width="10.5546875"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125"/>
-    <col min="5" max="5" width="14.7109375"/>
-    <col min="6" max="6" width="15.140625"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="11" width="14.140625"/>
-    <col min="12" max="12" width="17.85546875"/>
+    <col min="4" max="4" width="15.5546875"/>
+    <col min="5" max="5" width="14.6640625"/>
+    <col min="6" max="6" width="15.109375"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875"/>
+    <col min="10" max="10" width="13.44140625"/>
+    <col min="11" max="11" width="14.109375"/>
+    <col min="12" max="12" width="17.88671875"/>
     <col min="13" max="13" width="15"/>
-    <col min="14" max="14" width="10.42578125"/>
-    <col min="15" max="1027" width="8.5703125"/>
+    <col min="14" max="14" width="10.44140625"/>
+    <col min="15" max="1027" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -580,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -625,7 +636,7 @@
         <v>0.53265075921908889</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -670,7 +681,7 @@
         <v>0.33981149996346893</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -715,7 +726,7 @@
         <v>0.24419108288743327</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -745,7 +756,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -775,7 +786,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -814,11 +825,11 @@
         <v>0.11970952835032642</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N19" si="2">2*(L7*M7)/(L7+M7)</f>
+        <f t="shared" ref="N7:N20" si="2">2*(L7*M7)/(L7+M7)</f>
         <v>0.19800398775807598</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -861,7 +872,7 @@
         <v>0.34353291159898419</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -904,7 +915,7 @@
         <v>0.64935841828883323</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -947,7 +958,7 @@
         <v>0.64856906333463016</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -990,15 +1001,15 @@
         <v>0.47244581853091222</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -1009,23 +1020,31 @@
       <c r="F12" s="3">
         <v>100000</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4">
-        <v>0.90286054827175199</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.60855593492669202</v>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10">
+        <v>4198</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3358</v>
+      </c>
+      <c r="K12" s="10">
+        <v>135</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12" si="6">I12/(I12+J12)</f>
+        <v>0.55558496559025938</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12" si="7">J12/(J12+K12)</f>
+        <v>0.96135127397652442</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.72705458908218346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N12" si="8">2*(L12*M12)/(L12+M12)</f>
+        <v>0.704198766620454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
         <v>100000</v>
@@ -1050,17 +1069,17 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="4">
-        <v>0.61512791991101201</v>
+        <v>0.90286054827175199</v>
       </c>
       <c r="M13" s="4">
-        <v>5.5275126193213099E-2</v>
+        <v>0.60855593492669202</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="2"/>
-        <v>0.10143531893428723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.72705458908218346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1074,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3">
         <v>100000</v>
@@ -1085,17 +1104,17 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4">
-        <v>0.36324786324786301</v>
+        <v>0.61512791991101201</v>
       </c>
       <c r="M14" s="4">
-        <v>8.8529678272733904E-4</v>
+        <v>5.5275126193213099E-2</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="2"/>
-        <v>1.7662888193917732E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10143531893428723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1106,13 +1125,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
@@ -1120,22 +1139,22 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4">
-        <v>0.81307222787385602</v>
+        <v>0.36324786324786301</v>
       </c>
       <c r="M15" s="4">
-        <v>0.33167341010478302</v>
+        <v>8.8529678272733904E-4</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="2"/>
-        <v>0.47115172058065036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7662888193917732E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1147,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
@@ -1155,17 +1174,17 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4">
-        <v>0.81679999999999997</v>
+        <v>0.81307222787385602</v>
       </c>
       <c r="M16" s="4">
-        <v>0.32529999999999998</v>
+        <v>0.33167341010478302</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="2"/>
-        <v>0.46529207600035016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.47115172058065036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1179,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>60000</v>
@@ -1190,34 +1209,34 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="4">
-        <v>0.39679999999999999</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="M17" s="4">
-        <v>1.2E-2</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="2"/>
-        <v>2.3295499021526417E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.46529207600035016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="3">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
@@ -1225,34 +1244,34 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4">
-        <v>0.875</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="M18" s="4">
-        <v>1.3760000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="2"/>
-        <v>2.747679078386446E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3295499021526417E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
+      <c r="F19" s="3">
+        <v>10000</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -1260,17 +1279,17 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4">
-        <v>0.77470000000000006</v>
+        <v>0.875</v>
       </c>
       <c r="M19" s="4">
-        <v>2E-3</v>
+        <v>1.3760000000000001E-3</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="2"/>
-        <v>3.9897000128749837E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.747679078386446E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1281,13 +1300,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
@@ -1295,17 +1314,17 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4">
-        <v>0.86809999999999998</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="M20" s="4">
-        <v>2.588E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" ref="N20" si="6">2*(L20*M20)/(L20+M20)</f>
-        <v>5.1606150538424786E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.9897000128749837E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1316,13 +1335,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1330,17 +1349,17 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="4">
-        <v>0.88690000000000002</v>
+        <v>0.86809999999999998</v>
       </c>
       <c r="M21" s="4">
-        <v>3.0850000000000001E-3</v>
+        <v>2.588E-3</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:N27" si="7">2*(L21*M21)/(L21+M21)</f>
-        <v>6.1486126170665796E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N21" si="9">2*(L21*M21)/(L21+M21)</f>
+        <v>5.1606150538424786E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1351,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
@@ -1365,17 +1384,17 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="4">
-        <v>0.88395000000000001</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="M22" s="4">
-        <v>2.6809999999999998E-3</v>
+        <v>3.0850000000000001E-3</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="7"/>
-        <v>5.3457863530600664E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N22:N28" si="10">2*(L22*M22)/(L22+M22)</f>
+        <v>6.1486126170665796E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1386,33 +1405,31 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="4">
-        <v>0.48320000000000002</v>
+        <v>0.88395000000000001</v>
       </c>
       <c r="M23" s="4">
-        <v>2.1409999999999998E-2</v>
+        <v>2.6809999999999998E-3</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="7"/>
-        <v>4.1003198509740192E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>5.3457863530600664E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1422,14 +1439,14 @@
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>24</v>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>31</v>
@@ -1439,17 +1456,17 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4">
-        <v>0.52280000000000004</v>
+        <v>0.48320000000000002</v>
       </c>
       <c r="M24" s="4">
-        <v>1.38E-2</v>
+        <v>2.1409999999999998E-2</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6890197540067086E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>4.1003198509740192E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1459,14 +1476,14 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>26</v>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>31</v>
@@ -1476,17 +1493,17 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="4">
-        <v>0.51439999999999997</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="M25" s="4">
-        <v>1.1358E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="7"/>
-        <v>2.2225264094887762E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2.6890197540067086E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1497,13 +1514,13 @@
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>31</v>
@@ -1513,17 +1530,17 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="4">
-        <v>0.51780000000000004</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="M26" s="4">
-        <v>1.093E-2</v>
+        <v>1.1358E-2</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="7"/>
-        <v>2.1408106216783615E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2.2225264094887762E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1534,13 +1551,13 @@
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>31</v>
@@ -1550,17 +1567,17 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="4">
-        <v>0.5161</v>
+        <v>0.51780000000000004</v>
       </c>
       <c r="M27" s="4">
-        <v>1.085E-2</v>
+        <v>1.093E-2</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="7"/>
-        <v>2.1253192902552422E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2.1408106216783615E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1571,13 +1588,13 @@
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>31</v>
@@ -1586,18 +1603,39 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="L28" s="4">
+        <v>0.5161</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.085E-2</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="10"/>
+        <v>2.1253192902552422E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1606,7 +1644,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1622,7 +1660,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1638,7 +1676,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1654,7 +1692,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1670,7 +1708,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1686,7 +1724,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1702,7 +1740,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1718,7 +1756,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1734,7 +1772,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1750,7 +1788,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1766,7 +1804,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1782,9 +1820,25 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:M16">
-    <sortCondition ref="B2:B16"/>
+  <sortState ref="A2:M17">
+    <sortCondition ref="B2:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
